--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5A659-DF69-4BD7-B6A7-9A3B78481D7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A9ED6F-E24F-4336-9861-8599B55B51F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3045" windowWidth="20445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="6390" windowWidth="20445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Playing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,6 +508,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A9ED6F-E24F-4336-9861-8599B55B51F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D57367B-BE11-4F44-A0C3-7F1689086604}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="6390" windowWidth="20445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="3675" windowWidth="18630" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,102 @@
   </si>
   <si>
     <t>Playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克大战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Players</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,7 +573,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -488,7 +584,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -499,7 +595,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -510,7 +606,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -521,13 +617,145 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D57367B-BE11-4F44-A0C3-7F1689086604}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5123B3F3-932D-45BC-8A47-DC076A21CADD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="3675" windowWidth="18630" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="3585" windowWidth="18630" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,94 @@
   </si>
   <si>
     <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南科技大学虚拟现实实验室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southwest University of Science and Technology Virtual Reality Lab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入房间名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input RoomName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,6 +846,127 @@
         <v>42</v>
       </c>
     </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>1019</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>1021</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>1023</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>1025</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>1026</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>1028</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5123B3F3-932D-45BC-8A47-DC076A21CADD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60DD42B-803B-4871-A62D-B72AA59F1446}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="3585" windowWidth="18630" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="1590" windowWidth="18630" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,54 @@
   </si>
   <si>
     <t>Input RoomName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lanaguage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头顶名字显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top Name Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头顶血条显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Strip Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spinning Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏ID：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameID：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,17 +655,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -967,6 +1016,72 @@
         <v>64</v>
       </c>
     </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>1030</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>1031</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>1032</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>1033</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <v>1034</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60DD42B-803B-4871-A62D-B72AA59F1446}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE68216-9E08-4440-9B08-75E886A413B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1590" windowWidth="18630" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="1590" windowWidth="18630" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,14 @@
   </si>
   <si>
     <t>GameID：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名字符3~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room name characters 3~5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1082,6 +1090,17 @@
         <v>74</v>
       </c>
     </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <v>1044</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE68216-9E08-4440-9B08-75E886A413B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538F14B-7CEC-4083-BF9E-2CC664599D81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1590" windowWidth="18630" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12885" yWindow="600" windowWidth="18630" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,30 @@
   </si>
   <si>
     <t>Room name characters 3~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未达到开局人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待所有玩家准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait All Player Reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Num Too Less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1101,6 +1125,39 @@
         <v>78</v>
       </c>
     </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>1045</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>1046</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>1047</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538F14B-7CEC-4083-BF9E-2CC664599D81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E324020-A7F4-43F4-88DF-A5B4B767AEBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="600" windowWidth="18630" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="1110" windowWidth="18630" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,76 @@
   </si>
   <si>
     <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜伏者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保卫者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lurker</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军衔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deaths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再来一局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextGame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1158,6 +1228,105 @@
         <v>84</v>
       </c>
     </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <v>1048</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>1049</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <v>1050</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="1">
+        <v>1051</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <v>1052</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>1053</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <v>1054</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <v>1055</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <v>1056</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E324020-A7F4-43F4-88DF-A5B4B767AEBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0314C6-8B80-44DD-9A8F-7605E53D9D9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="1110" windowWidth="18630" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2295" windowWidth="18630" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,14 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间名字符3~5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Room name characters 3~5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暂未达到开局人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,6 +421,101 @@
   </si>
   <si>
     <t>NextGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember Me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码不符合规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone number does not meet specifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码(6~11个字符)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password(6~11character)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名不符合规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不符合规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username does not meet specifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password does not meet specifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account already exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在的账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-existent account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong password</t>
+  </si>
+  <si>
+    <t>Username(4~9character)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名(4~9个字符)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名字符3~14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room name characters 3~14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>’s room</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,9 +559,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -757,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1189,10 +1279,10 @@
         <v>1044</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
@@ -1200,10 +1290,10 @@
         <v>1045</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -1211,10 +1301,10 @@
         <v>1046</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
@@ -1222,10 +1312,10 @@
         <v>1047</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
@@ -1233,10 +1323,10 @@
         <v>1048</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
@@ -1244,10 +1334,10 @@
         <v>1049</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -1255,10 +1345,10 @@
         <v>1050</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
@@ -1266,10 +1356,10 @@
         <v>1051</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -1277,10 +1367,10 @@
         <v>1052</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
@@ -1288,10 +1378,10 @@
         <v>1053</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -1299,10 +1389,10 @@
         <v>1054</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
@@ -1310,10 +1400,10 @@
         <v>1055</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
@@ -1321,10 +1411,131 @@
         <v>1056</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>1057</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>1058</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>1059</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>1061</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="1">
+        <v>1063</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="1">
+        <v>1064</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="1">
+        <v>1065</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62" s="1">
+        <v>1066</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="1">
+        <v>1067</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0314C6-8B80-44DD-9A8F-7605E53D9D9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B232C20-5220-4490-BA28-262DE415BC15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2295" windowWidth="18630" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3990" yWindow="4845" windowWidth="18630" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,6 +516,38 @@
   </si>
   <si>
     <t>’s room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank By Naive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank By Naïve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本：1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISION：1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流：1095068286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTACT：1095068286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣谢：西南科技大学虚拟现实与可视化团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THANKS：Virtual Reality and Visualization Team</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1538,6 +1570,50 @@
         <v>124</v>
       </c>
     </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C64" s="1">
+        <v>1068</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C65" s="1">
+        <v>1069</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <v>1070</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
+        <v>1071</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B232C20-5220-4490-BA28-262DE415BC15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B65422C-C140-429E-83CE-444D071B7580}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3990" yWindow="4845" windowWidth="18630" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="4200" windowWidth="18630" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,6 +548,30 @@
   </si>
   <si>
     <t>THANKS：Virtual Reality and Visualization Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1614,6 +1638,39 @@
         <v>132</v>
       </c>
     </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="1">
+        <v>1072</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <v>1073</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <v>1074</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B65422C-C140-429E-83CE-444D071B7580}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C8A20-3B89-4D4E-AE31-AB9BA102D1EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="4200" windowWidth="18630" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="17550" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,6 +572,110 @@
   </si>
   <si>
     <t>Round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功出战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully Played</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已拥有不必重复购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Already have no need to repeat purchases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully Use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold inadequate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1671,6 +1775,149 @@
         <v>138</v>
       </c>
     </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C71" s="1">
+        <v>1075</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C72" s="1">
+        <v>1076</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C73" s="1">
+        <v>1077</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
+        <v>1078</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C75" s="1">
+        <v>1079</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C76" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <v>1081</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <v>1082</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C79" s="1">
+        <v>1083</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C80" s="1">
+        <v>1084</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C81" s="1">
+        <v>1085</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C82" s="1">
+        <v>1086</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C83" s="1">
+        <v>1087</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Message.xlsx
+++ b/Excel/Message.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C8A20-3B89-4D4E-AE31-AB9BA102D1EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6746C0CD-AB4C-400C-9407-4F9A5831708B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="17550" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10770" yWindow="2805" windowWidth="23040" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +676,86 @@
   </si>
   <si>
     <t>出战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装弹速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experience Bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available Times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每张可加成次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left Times</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1918,6 +1998,116 @@
         <v>163</v>
       </c>
     </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C84" s="1">
+        <v>1088</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C85" s="1">
+        <v>1089</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C86" s="1">
+        <v>1090</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C87" s="1">
+        <v>1091</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C88" s="1">
+        <v>1092</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C89" s="1">
+        <v>1093</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C90" s="1">
+        <v>1094</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C91" s="1">
+        <v>1095</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C92" s="1">
+        <v>1096</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C93" s="1">
+        <v>1097</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
